--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_278.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_278.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32122-d76235-Reviews-Fairfield_Inn_Suites_Anaheim_North_Buena_Park-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>340</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Fairfield-Inn-Suites-Anaheim-Buena-ParkDisney-North.h22651.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_278.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_278.xlsx
@@ -4828,7 +4828,7 @@
         <v>24078</v>
       </c>
       <c r="B2" t="n">
-        <v>146786</v>
+        <v>178141</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -5019,7 +5019,7 @@
         <v>24078</v>
       </c>
       <c r="B5" t="n">
-        <v>146787</v>
+        <v>178142</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -5153,7 +5153,7 @@
         <v>24078</v>
       </c>
       <c r="B7" t="n">
-        <v>146788</v>
+        <v>178143</v>
       </c>
       <c r="C7" t="s">
         <v>94</v>
@@ -5281,7 +5281,7 @@
         <v>24078</v>
       </c>
       <c r="B9" t="n">
-        <v>146789</v>
+        <v>178144</v>
       </c>
       <c r="C9" t="s">
         <v>109</v>
@@ -5480,7 +5480,7 @@
         <v>24078</v>
       </c>
       <c r="B12" t="n">
-        <v>146790</v>
+        <v>178145</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
@@ -5537,7 +5537,7 @@
         <v>24078</v>
       </c>
       <c r="B13" t="n">
-        <v>146791</v>
+        <v>178146</v>
       </c>
       <c r="C13" t="s">
         <v>138</v>
@@ -5598,7 +5598,7 @@
         <v>24078</v>
       </c>
       <c r="B14" t="n">
-        <v>146792</v>
+        <v>178147</v>
       </c>
       <c r="C14" t="s">
         <v>143</v>
@@ -5663,7 +5663,7 @@
         <v>24078</v>
       </c>
       <c r="B15" t="n">
-        <v>146793</v>
+        <v>178148</v>
       </c>
       <c r="C15" t="s">
         <v>150</v>
@@ -5728,7 +5728,7 @@
         <v>24078</v>
       </c>
       <c r="B16" t="n">
-        <v>146794</v>
+        <v>178149</v>
       </c>
       <c r="C16" t="s">
         <v>157</v>
@@ -5789,7 +5789,7 @@
         <v>24078</v>
       </c>
       <c r="B17" t="n">
-        <v>146795</v>
+        <v>178150</v>
       </c>
       <c r="C17" t="s">
         <v>163</v>
@@ -5856,7 +5856,7 @@
         <v>24078</v>
       </c>
       <c r="B18" t="n">
-        <v>146796</v>
+        <v>178151</v>
       </c>
       <c r="C18" t="s">
         <v>170</v>
@@ -5923,7 +5923,7 @@
         <v>24078</v>
       </c>
       <c r="B19" t="n">
-        <v>146797</v>
+        <v>178152</v>
       </c>
       <c r="C19" t="s">
         <v>176</v>
@@ -5988,7 +5988,7 @@
         <v>24078</v>
       </c>
       <c r="B20" t="n">
-        <v>146798</v>
+        <v>178153</v>
       </c>
       <c r="C20" t="s">
         <v>182</v>
@@ -6053,7 +6053,7 @@
         <v>24078</v>
       </c>
       <c r="B21" t="n">
-        <v>146799</v>
+        <v>178154</v>
       </c>
       <c r="C21" t="s">
         <v>192</v>
@@ -6114,7 +6114,7 @@
         <v>24078</v>
       </c>
       <c r="B22" t="n">
-        <v>146800</v>
+        <v>178155</v>
       </c>
       <c r="C22" t="s">
         <v>200</v>
@@ -6179,7 +6179,7 @@
         <v>24078</v>
       </c>
       <c r="B23" t="n">
-        <v>146801</v>
+        <v>178156</v>
       </c>
       <c r="C23" t="s">
         <v>206</v>
@@ -6376,7 +6376,7 @@
         <v>24078</v>
       </c>
       <c r="B26" t="n">
-        <v>146802</v>
+        <v>178157</v>
       </c>
       <c r="C26" t="s">
         <v>227</v>
@@ -6447,7 +6447,7 @@
         <v>24078</v>
       </c>
       <c r="B27" t="n">
-        <v>146803</v>
+        <v>178158</v>
       </c>
       <c r="C27" t="s">
         <v>236</v>
@@ -6514,7 +6514,7 @@
         <v>24078</v>
       </c>
       <c r="B28" t="n">
-        <v>146804</v>
+        <v>178159</v>
       </c>
       <c r="C28" t="s">
         <v>243</v>
@@ -6575,7 +6575,7 @@
         <v>24078</v>
       </c>
       <c r="B29" t="n">
-        <v>146805</v>
+        <v>178160</v>
       </c>
       <c r="C29" t="s">
         <v>249</v>
@@ -6705,7 +6705,7 @@
         <v>24078</v>
       </c>
       <c r="B31" t="n">
-        <v>146806</v>
+        <v>178161</v>
       </c>
       <c r="C31" t="s">
         <v>265</v>
@@ -6770,7 +6770,7 @@
         <v>24078</v>
       </c>
       <c r="B32" t="n">
-        <v>146807</v>
+        <v>178162</v>
       </c>
       <c r="C32" t="s">
         <v>271</v>
@@ -6837,7 +6837,7 @@
         <v>24078</v>
       </c>
       <c r="B33" t="n">
-        <v>146808</v>
+        <v>178163</v>
       </c>
       <c r="C33" t="s">
         <v>277</v>
@@ -6898,7 +6898,7 @@
         <v>24078</v>
       </c>
       <c r="B34" t="n">
-        <v>146809</v>
+        <v>178164</v>
       </c>
       <c r="C34" t="s">
         <v>283</v>
@@ -6965,7 +6965,7 @@
         <v>24078</v>
       </c>
       <c r="B35" t="n">
-        <v>146810</v>
+        <v>178165</v>
       </c>
       <c r="C35" t="s">
         <v>291</v>
@@ -7030,7 +7030,7 @@
         <v>24078</v>
       </c>
       <c r="B36" t="n">
-        <v>146811</v>
+        <v>178166</v>
       </c>
       <c r="C36" t="s">
         <v>297</v>
@@ -7097,7 +7097,7 @@
         <v>24078</v>
       </c>
       <c r="B37" t="n">
-        <v>146812</v>
+        <v>178167</v>
       </c>
       <c r="C37" t="s">
         <v>303</v>
@@ -7164,7 +7164,7 @@
         <v>24078</v>
       </c>
       <c r="B38" t="n">
-        <v>146813</v>
+        <v>178168</v>
       </c>
       <c r="C38" t="s">
         <v>308</v>
@@ -7231,7 +7231,7 @@
         <v>24078</v>
       </c>
       <c r="B39" t="n">
-        <v>146814</v>
+        <v>178169</v>
       </c>
       <c r="C39" t="s">
         <v>314</v>
@@ -7296,7 +7296,7 @@
         <v>24078</v>
       </c>
       <c r="B40" t="n">
-        <v>146815</v>
+        <v>178170</v>
       </c>
       <c r="C40" t="s">
         <v>321</v>
@@ -7363,7 +7363,7 @@
         <v>24078</v>
       </c>
       <c r="B41" t="n">
-        <v>146816</v>
+        <v>178171</v>
       </c>
       <c r="C41" t="s">
         <v>328</v>
@@ -7430,7 +7430,7 @@
         <v>24078</v>
       </c>
       <c r="B42" t="n">
-        <v>146817</v>
+        <v>178172</v>
       </c>
       <c r="C42" t="s">
         <v>336</v>
@@ -7562,7 +7562,7 @@
         <v>24078</v>
       </c>
       <c r="B44" t="n">
-        <v>146818</v>
+        <v>178173</v>
       </c>
       <c r="C44" t="s">
         <v>350</v>
@@ -7629,7 +7629,7 @@
         <v>24078</v>
       </c>
       <c r="B45" t="n">
-        <v>146819</v>
+        <v>178174</v>
       </c>
       <c r="C45" t="s">
         <v>358</v>
@@ -7826,7 +7826,7 @@
         <v>24078</v>
       </c>
       <c r="B48" t="n">
-        <v>146820</v>
+        <v>178175</v>
       </c>
       <c r="C48" t="s">
         <v>384</v>
@@ -7895,7 +7895,7 @@
         <v>24078</v>
       </c>
       <c r="B49" t="n">
-        <v>146821</v>
+        <v>178176</v>
       </c>
       <c r="C49" t="s">
         <v>394</v>
@@ -7956,7 +7956,7 @@
         <v>24078</v>
       </c>
       <c r="B50" t="n">
-        <v>146822</v>
+        <v>178177</v>
       </c>
       <c r="C50" t="s">
         <v>401</v>
@@ -8021,7 +8021,7 @@
         <v>24078</v>
       </c>
       <c r="B51" t="n">
-        <v>146823</v>
+        <v>178178</v>
       </c>
       <c r="C51" t="s">
         <v>410</v>
@@ -8220,7 +8220,7 @@
         <v>24078</v>
       </c>
       <c r="B54" t="n">
-        <v>146824</v>
+        <v>178179</v>
       </c>
       <c r="C54" t="s">
         <v>437</v>
@@ -8285,7 +8285,7 @@
         <v>24078</v>
       </c>
       <c r="B55" t="n">
-        <v>146825</v>
+        <v>178180</v>
       </c>
       <c r="C55" t="s">
         <v>444</v>
@@ -8352,7 +8352,7 @@
         <v>24078</v>
       </c>
       <c r="B56" t="n">
-        <v>146826</v>
+        <v>178181</v>
       </c>
       <c r="C56" t="s">
         <v>452</v>
@@ -8490,7 +8490,7 @@
         <v>24078</v>
       </c>
       <c r="B58" t="n">
-        <v>146827</v>
+        <v>178182</v>
       </c>
       <c r="C58" t="s">
         <v>467</v>
@@ -8551,7 +8551,7 @@
         <v>24078</v>
       </c>
       <c r="B59" t="n">
-        <v>146828</v>
+        <v>178183</v>
       </c>
       <c r="C59" t="s">
         <v>474</v>
@@ -8612,7 +8612,7 @@
         <v>24078</v>
       </c>
       <c r="B60" t="n">
-        <v>146829</v>
+        <v>178184</v>
       </c>
       <c r="C60" t="s">
         <v>481</v>
@@ -8673,7 +8673,7 @@
         <v>24078</v>
       </c>
       <c r="B61" t="n">
-        <v>146830</v>
+        <v>178185</v>
       </c>
       <c r="C61" t="s">
         <v>486</v>
@@ -8734,7 +8734,7 @@
         <v>24078</v>
       </c>
       <c r="B62" t="n">
-        <v>146831</v>
+        <v>178186</v>
       </c>
       <c r="C62" t="s">
         <v>491</v>
@@ -8860,7 +8860,7 @@
         <v>24078</v>
       </c>
       <c r="B64" t="n">
-        <v>146832</v>
+        <v>178187</v>
       </c>
       <c r="C64" t="s">
         <v>503</v>
@@ -8927,7 +8927,7 @@
         <v>24078</v>
       </c>
       <c r="B65" t="n">
-        <v>146833</v>
+        <v>178188</v>
       </c>
       <c r="C65" t="s">
         <v>511</v>
@@ -9124,7 +9124,7 @@
         <v>24078</v>
       </c>
       <c r="B68" t="n">
-        <v>146834</v>
+        <v>178189</v>
       </c>
       <c r="C68" t="s">
         <v>533</v>
@@ -9189,7 +9189,7 @@
         <v>24078</v>
       </c>
       <c r="B69" t="n">
-        <v>146835</v>
+        <v>178190</v>
       </c>
       <c r="C69" t="s">
         <v>542</v>
@@ -9254,7 +9254,7 @@
         <v>24078</v>
       </c>
       <c r="B70" t="n">
-        <v>146836</v>
+        <v>178191</v>
       </c>
       <c r="C70" t="s">
         <v>551</v>
@@ -9321,7 +9321,7 @@
         <v>24078</v>
       </c>
       <c r="B71" t="n">
-        <v>146837</v>
+        <v>178192</v>
       </c>
       <c r="C71" t="s">
         <v>557</v>
@@ -9453,7 +9453,7 @@
         <v>24078</v>
       </c>
       <c r="B73" t="n">
-        <v>146838</v>
+        <v>178193</v>
       </c>
       <c r="C73" t="s">
         <v>572</v>
@@ -9518,7 +9518,7 @@
         <v>24078</v>
       </c>
       <c r="B74" t="n">
-        <v>146839</v>
+        <v>178194</v>
       </c>
       <c r="C74" t="s">
         <v>581</v>
@@ -9648,7 +9648,7 @@
         <v>24078</v>
       </c>
       <c r="B76" t="n">
-        <v>146840</v>
+        <v>178195</v>
       </c>
       <c r="C76" t="s">
         <v>597</v>
@@ -9719,7 +9719,7 @@
         <v>24078</v>
       </c>
       <c r="B77" t="n">
-        <v>146841</v>
+        <v>178196</v>
       </c>
       <c r="C77" t="s">
         <v>605</v>
@@ -9784,7 +9784,7 @@
         <v>24078</v>
       </c>
       <c r="B78" t="n">
-        <v>146842</v>
+        <v>178197</v>
       </c>
       <c r="C78" t="s">
         <v>615</v>
@@ -9853,7 +9853,7 @@
         <v>24078</v>
       </c>
       <c r="B79" t="n">
-        <v>146843</v>
+        <v>178198</v>
       </c>
       <c r="C79" t="s">
         <v>625</v>
@@ -9918,7 +9918,7 @@
         <v>24078</v>
       </c>
       <c r="B80" t="n">
-        <v>146844</v>
+        <v>178199</v>
       </c>
       <c r="C80" t="s">
         <v>632</v>
@@ -9983,7 +9983,7 @@
         <v>24078</v>
       </c>
       <c r="B81" t="n">
-        <v>146845</v>
+        <v>178200</v>
       </c>
       <c r="C81" t="s">
         <v>638</v>
@@ -10044,7 +10044,7 @@
         <v>24078</v>
       </c>
       <c r="B82" t="n">
-        <v>146846</v>
+        <v>178201</v>
       </c>
       <c r="C82" t="s">
         <v>647</v>
@@ -10105,7 +10105,7 @@
         <v>24078</v>
       </c>
       <c r="B83" t="n">
-        <v>146847</v>
+        <v>178202</v>
       </c>
       <c r="C83" t="s">
         <v>655</v>
@@ -10166,7 +10166,7 @@
         <v>24078</v>
       </c>
       <c r="B84" t="n">
-        <v>146848</v>
+        <v>178203</v>
       </c>
       <c r="C84" t="s">
         <v>662</v>
@@ -10227,7 +10227,7 @@
         <v>24078</v>
       </c>
       <c r="B85" t="n">
-        <v>146849</v>
+        <v>178204</v>
       </c>
       <c r="C85" t="s">
         <v>667</v>
@@ -10361,7 +10361,7 @@
         <v>24078</v>
       </c>
       <c r="B87" t="n">
-        <v>146850</v>
+        <v>178205</v>
       </c>
       <c r="C87" t="s">
         <v>683</v>
@@ -10426,7 +10426,7 @@
         <v>24078</v>
       </c>
       <c r="B88" t="n">
-        <v>146851</v>
+        <v>178206</v>
       </c>
       <c r="C88" t="s">
         <v>690</v>
@@ -10627,7 +10627,7 @@
         <v>24078</v>
       </c>
       <c r="B91" t="n">
-        <v>146852</v>
+        <v>178207</v>
       </c>
       <c r="C91" t="s">
         <v>710</v>
@@ -10755,7 +10755,7 @@
         <v>24078</v>
       </c>
       <c r="B93" t="n">
-        <v>146853</v>
+        <v>178208</v>
       </c>
       <c r="C93" t="s">
         <v>723</v>
@@ -10826,7 +10826,7 @@
         <v>24078</v>
       </c>
       <c r="B94" t="n">
-        <v>146854</v>
+        <v>178209</v>
       </c>
       <c r="C94" t="s">
         <v>732</v>
@@ -10889,7 +10889,7 @@
         <v>24078</v>
       </c>
       <c r="B95" t="n">
-        <v>146855</v>
+        <v>178210</v>
       </c>
       <c r="C95" t="s">
         <v>739</v>
@@ -10954,7 +10954,7 @@
         <v>24078</v>
       </c>
       <c r="B96" t="n">
-        <v>146856</v>
+        <v>178211</v>
       </c>
       <c r="C96" t="s">
         <v>746</v>
@@ -11015,7 +11015,7 @@
         <v>24078</v>
       </c>
       <c r="B97" t="n">
-        <v>146857</v>
+        <v>178212</v>
       </c>
       <c r="C97" t="s">
         <v>752</v>
@@ -11082,7 +11082,7 @@
         <v>24078</v>
       </c>
       <c r="B98" t="n">
-        <v>146858</v>
+        <v>178213</v>
       </c>
       <c r="C98" t="s">
         <v>758</v>
@@ -11149,7 +11149,7 @@
         <v>24078</v>
       </c>
       <c r="B99" t="n">
-        <v>146859</v>
+        <v>178214</v>
       </c>
       <c r="C99" t="s">
         <v>764</v>
@@ -11220,7 +11220,7 @@
         <v>24078</v>
       </c>
       <c r="B100" t="n">
-        <v>146860</v>
+        <v>178215</v>
       </c>
       <c r="C100" t="s">
         <v>773</v>
@@ -11354,7 +11354,7 @@
         <v>24078</v>
       </c>
       <c r="B102" t="n">
-        <v>146861</v>
+        <v>178216</v>
       </c>
       <c r="C102" t="s">
         <v>786</v>
@@ -11421,7 +11421,7 @@
         <v>24078</v>
       </c>
       <c r="B103" t="n">
-        <v>146862</v>
+        <v>178217</v>
       </c>
       <c r="C103" t="s">
         <v>791</v>
@@ -11620,7 +11620,7 @@
         <v>24078</v>
       </c>
       <c r="B106" t="n">
-        <v>146863</v>
+        <v>178218</v>
       </c>
       <c r="C106" t="s">
         <v>809</v>
@@ -11742,7 +11742,7 @@
         <v>24078</v>
       </c>
       <c r="B108" t="n">
-        <v>146864</v>
+        <v>178219</v>
       </c>
       <c r="C108" t="s">
         <v>820</v>
@@ -11868,7 +11868,7 @@
         <v>24078</v>
       </c>
       <c r="B110" t="n">
-        <v>146865</v>
+        <v>178220</v>
       </c>
       <c r="C110" t="s">
         <v>836</v>
@@ -11933,7 +11933,7 @@
         <v>24078</v>
       </c>
       <c r="B111" t="n">
-        <v>146866</v>
+        <v>178221</v>
       </c>
       <c r="C111" t="s">
         <v>842</v>
@@ -12063,7 +12063,7 @@
         <v>24078</v>
       </c>
       <c r="B113" t="n">
-        <v>146867</v>
+        <v>178222</v>
       </c>
       <c r="C113" t="s">
         <v>856</v>
@@ -12130,7 +12130,7 @@
         <v>24078</v>
       </c>
       <c r="B114" t="n">
-        <v>146868</v>
+        <v>178223</v>
       </c>
       <c r="C114" t="s">
         <v>863</v>
@@ -12195,7 +12195,7 @@
         <v>24078</v>
       </c>
       <c r="B115" t="n">
-        <v>146869</v>
+        <v>178224</v>
       </c>
       <c r="C115" t="s">
         <v>871</v>
@@ -12323,7 +12323,7 @@
         <v>24078</v>
       </c>
       <c r="B117" t="n">
-        <v>146870</v>
+        <v>178225</v>
       </c>
       <c r="C117" t="s">
         <v>885</v>
@@ -12390,7 +12390,7 @@
         <v>24078</v>
       </c>
       <c r="B118" t="n">
-        <v>146871</v>
+        <v>178226</v>
       </c>
       <c r="C118" t="s">
         <v>892</v>
@@ -12455,7 +12455,7 @@
         <v>24078</v>
       </c>
       <c r="B119" t="n">
-        <v>146872</v>
+        <v>178227</v>
       </c>
       <c r="C119" t="s">
         <v>899</v>
@@ -12520,7 +12520,7 @@
         <v>24078</v>
       </c>
       <c r="B120" t="n">
-        <v>146873</v>
+        <v>178228</v>
       </c>
       <c r="C120" t="s">
         <v>905</v>
@@ -12652,7 +12652,7 @@
         <v>24078</v>
       </c>
       <c r="B122" t="n">
-        <v>146874</v>
+        <v>178229</v>
       </c>
       <c r="C122" t="s">
         <v>917</v>
@@ -12719,7 +12719,7 @@
         <v>24078</v>
       </c>
       <c r="B123" t="n">
-        <v>146875</v>
+        <v>178230</v>
       </c>
       <c r="C123" t="s">
         <v>923</v>
@@ -12784,7 +12784,7 @@
         <v>24078</v>
       </c>
       <c r="B124" t="n">
-        <v>146876</v>
+        <v>178231</v>
       </c>
       <c r="C124" t="s">
         <v>929</v>
@@ -12851,7 +12851,7 @@
         <v>24078</v>
       </c>
       <c r="B125" t="n">
-        <v>146877</v>
+        <v>178232</v>
       </c>
       <c r="C125" t="s">
         <v>935</v>
@@ -12916,7 +12916,7 @@
         <v>24078</v>
       </c>
       <c r="B126" t="n">
-        <v>146878</v>
+        <v>178233</v>
       </c>
       <c r="C126" t="s">
         <v>942</v>
@@ -12981,7 +12981,7 @@
         <v>24078</v>
       </c>
       <c r="B127" t="n">
-        <v>146879</v>
+        <v>178234</v>
       </c>
       <c r="C127" t="s">
         <v>950</v>
@@ -13048,7 +13048,7 @@
         <v>24078</v>
       </c>
       <c r="B128" t="n">
-        <v>146880</v>
+        <v>178235</v>
       </c>
       <c r="C128" t="s">
         <v>956</v>
@@ -13109,7 +13109,7 @@
         <v>24078</v>
       </c>
       <c r="B129" t="n">
-        <v>146881</v>
+        <v>178236</v>
       </c>
       <c r="C129" t="s">
         <v>962</v>
@@ -13241,7 +13241,7 @@
         <v>24078</v>
       </c>
       <c r="B131" t="n">
-        <v>146882</v>
+        <v>178237</v>
       </c>
       <c r="C131" t="s">
         <v>975</v>
@@ -13312,7 +13312,7 @@
         <v>24078</v>
       </c>
       <c r="B132" t="n">
-        <v>146883</v>
+        <v>178238</v>
       </c>
       <c r="C132" t="s">
         <v>983</v>
@@ -13436,7 +13436,7 @@
         <v>24078</v>
       </c>
       <c r="B134" t="n">
-        <v>146884</v>
+        <v>178239</v>
       </c>
       <c r="C134" t="s">
         <v>996</v>
@@ -13578,7 +13578,7 @@
         <v>24078</v>
       </c>
       <c r="B136" t="n">
-        <v>146885</v>
+        <v>178240</v>
       </c>
       <c r="C136" t="s">
         <v>1010</v>
@@ -13710,7 +13710,7 @@
         <v>24078</v>
       </c>
       <c r="B138" t="n">
-        <v>146886</v>
+        <v>178241</v>
       </c>
       <c r="C138" t="s">
         <v>1024</v>
@@ -13781,7 +13781,7 @@
         <v>24078</v>
       </c>
       <c r="B139" t="n">
-        <v>146887</v>
+        <v>178242</v>
       </c>
       <c r="C139" t="s">
         <v>1032</v>
@@ -13852,7 +13852,7 @@
         <v>24078</v>
       </c>
       <c r="B140" t="n">
-        <v>146888</v>
+        <v>178243</v>
       </c>
       <c r="C140" t="s">
         <v>1039</v>
@@ -13913,7 +13913,7 @@
         <v>24078</v>
       </c>
       <c r="B141" t="n">
-        <v>146889</v>
+        <v>178244</v>
       </c>
       <c r="C141" t="s">
         <v>1047</v>
@@ -13984,7 +13984,7 @@
         <v>24078</v>
       </c>
       <c r="B142" t="n">
-        <v>146890</v>
+        <v>178245</v>
       </c>
       <c r="C142" t="s">
         <v>1054</v>
@@ -14045,7 +14045,7 @@
         <v>24078</v>
       </c>
       <c r="B143" t="n">
-        <v>146891</v>
+        <v>178246</v>
       </c>
       <c r="C143" t="s">
         <v>1061</v>
@@ -14116,7 +14116,7 @@
         <v>24078</v>
       </c>
       <c r="B144" t="n">
-        <v>146892</v>
+        <v>178247</v>
       </c>
       <c r="C144" t="s">
         <v>1067</v>
@@ -14187,7 +14187,7 @@
         <v>24078</v>
       </c>
       <c r="B145" t="n">
-        <v>146893</v>
+        <v>178248</v>
       </c>
       <c r="C145" t="s">
         <v>1073</v>
@@ -14258,7 +14258,7 @@
         <v>24078</v>
       </c>
       <c r="B146" t="n">
-        <v>146894</v>
+        <v>178249</v>
       </c>
       <c r="C146" t="s">
         <v>1080</v>
@@ -14329,7 +14329,7 @@
         <v>24078</v>
       </c>
       <c r="B147" t="n">
-        <v>146895</v>
+        <v>178250</v>
       </c>
       <c r="C147" t="s">
         <v>1088</v>
@@ -14400,7 +14400,7 @@
         <v>24078</v>
       </c>
       <c r="B148" t="n">
-        <v>146896</v>
+        <v>178251</v>
       </c>
       <c r="C148" t="s">
         <v>1095</v>
@@ -14542,7 +14542,7 @@
         <v>24078</v>
       </c>
       <c r="B150" t="n">
-        <v>146897</v>
+        <v>178252</v>
       </c>
       <c r="C150" t="s">
         <v>1108</v>
@@ -14613,7 +14613,7 @@
         <v>24078</v>
       </c>
       <c r="B151" t="n">
-        <v>146898</v>
+        <v>178253</v>
       </c>
       <c r="C151" t="s">
         <v>1115</v>
@@ -14684,7 +14684,7 @@
         <v>24078</v>
       </c>
       <c r="B152" t="n">
-        <v>146899</v>
+        <v>178254</v>
       </c>
       <c r="C152" t="s">
         <v>1121</v>
@@ -14755,7 +14755,7 @@
         <v>24078</v>
       </c>
       <c r="B153" t="n">
-        <v>146900</v>
+        <v>178255</v>
       </c>
       <c r="C153" t="s">
         <v>1128</v>
@@ -14826,7 +14826,7 @@
         <v>24078</v>
       </c>
       <c r="B154" t="n">
-        <v>146901</v>
+        <v>178256</v>
       </c>
       <c r="C154" t="s">
         <v>1134</v>
@@ -14897,7 +14897,7 @@
         <v>24078</v>
       </c>
       <c r="B155" t="n">
-        <v>146902</v>
+        <v>178257</v>
       </c>
       <c r="C155" t="s">
         <v>1139</v>
@@ -14968,7 +14968,7 @@
         <v>24078</v>
       </c>
       <c r="B156" t="n">
-        <v>146903</v>
+        <v>178258</v>
       </c>
       <c r="C156" t="s">
         <v>1146</v>
@@ -15110,7 +15110,7 @@
         <v>24078</v>
       </c>
       <c r="B158" t="n">
-        <v>146904</v>
+        <v>146826</v>
       </c>
       <c r="C158" t="s">
         <v>1162</v>
@@ -15171,7 +15171,7 @@
         <v>24078</v>
       </c>
       <c r="B159" t="n">
-        <v>146905</v>
+        <v>178259</v>
       </c>
       <c r="C159" t="s">
         <v>1170</v>
@@ -15242,7 +15242,7 @@
         <v>24078</v>
       </c>
       <c r="B160" t="n">
-        <v>146906</v>
+        <v>178260</v>
       </c>
       <c r="C160" t="s">
         <v>1176</v>
@@ -15313,7 +15313,7 @@
         <v>24078</v>
       </c>
       <c r="B161" t="n">
-        <v>146907</v>
+        <v>178261</v>
       </c>
       <c r="C161" t="s">
         <v>1184</v>
@@ -15384,7 +15384,7 @@
         <v>24078</v>
       </c>
       <c r="B162" t="n">
-        <v>146908</v>
+        <v>178262</v>
       </c>
       <c r="C162" t="s">
         <v>1192</v>
@@ -15455,7 +15455,7 @@
         <v>24078</v>
       </c>
       <c r="B163" t="n">
-        <v>146909</v>
+        <v>178263</v>
       </c>
       <c r="C163" t="s">
         <v>1198</v>
@@ -15526,7 +15526,7 @@
         <v>24078</v>
       </c>
       <c r="B164" t="n">
-        <v>146910</v>
+        <v>178264</v>
       </c>
       <c r="C164" t="s">
         <v>1205</v>
@@ -15597,7 +15597,7 @@
         <v>24078</v>
       </c>
       <c r="B165" t="n">
-        <v>146911</v>
+        <v>178265</v>
       </c>
       <c r="C165" t="s">
         <v>1213</v>
@@ -15672,7 +15672,7 @@
         <v>24078</v>
       </c>
       <c r="B166" t="n">
-        <v>146912</v>
+        <v>178266</v>
       </c>
       <c r="C166" t="s">
         <v>1223</v>
@@ -15743,7 +15743,7 @@
         <v>24078</v>
       </c>
       <c r="B167" t="n">
-        <v>146913</v>
+        <v>178267</v>
       </c>
       <c r="C167" t="s">
         <v>1229</v>
@@ -15814,7 +15814,7 @@
         <v>24078</v>
       </c>
       <c r="B168" t="n">
-        <v>146914</v>
+        <v>178268</v>
       </c>
       <c r="C168" t="s">
         <v>1236</v>
@@ -15885,7 +15885,7 @@
         <v>24078</v>
       </c>
       <c r="B169" t="n">
-        <v>146915</v>
+        <v>178269</v>
       </c>
       <c r="C169" t="s">
         <v>1243</v>
@@ -15956,7 +15956,7 @@
         <v>24078</v>
       </c>
       <c r="B170" t="n">
-        <v>146916</v>
+        <v>178270</v>
       </c>
       <c r="C170" t="s">
         <v>1250</v>
@@ -16098,7 +16098,7 @@
         <v>24078</v>
       </c>
       <c r="B172" t="n">
-        <v>146917</v>
+        <v>178271</v>
       </c>
       <c r="C172" t="s">
         <v>1262</v>
@@ -16169,7 +16169,7 @@
         <v>24078</v>
       </c>
       <c r="B173" t="n">
-        <v>146918</v>
+        <v>178272</v>
       </c>
       <c r="C173" t="s">
         <v>1267</v>
@@ -16240,7 +16240,7 @@
         <v>24078</v>
       </c>
       <c r="B174" t="n">
-        <v>146919</v>
+        <v>178273</v>
       </c>
       <c r="C174" t="s">
         <v>1275</v>
@@ -16311,7 +16311,7 @@
         <v>24078</v>
       </c>
       <c r="B175" t="n">
-        <v>146920</v>
+        <v>178274</v>
       </c>
       <c r="C175" t="s">
         <v>1282</v>
@@ -16382,7 +16382,7 @@
         <v>24078</v>
       </c>
       <c r="B176" t="n">
-        <v>146921</v>
+        <v>178275</v>
       </c>
       <c r="C176" t="s">
         <v>1290</v>
@@ -16524,7 +16524,7 @@
         <v>24078</v>
       </c>
       <c r="B178" t="n">
-        <v>146922</v>
+        <v>178276</v>
       </c>
       <c r="C178" t="s">
         <v>1304</v>
@@ -16595,7 +16595,7 @@
         <v>24078</v>
       </c>
       <c r="B179" t="n">
-        <v>146923</v>
+        <v>178277</v>
       </c>
       <c r="C179" t="s">
         <v>1312</v>
@@ -16737,7 +16737,7 @@
         <v>24078</v>
       </c>
       <c r="B181" t="n">
-        <v>146924</v>
+        <v>178278</v>
       </c>
       <c r="C181" t="s">
         <v>1325</v>
@@ -16808,7 +16808,7 @@
         <v>24078</v>
       </c>
       <c r="B182" t="n">
-        <v>146903</v>
+        <v>146826</v>
       </c>
       <c r="C182" t="s">
         <v>1162</v>
@@ -16879,7 +16879,7 @@
         <v>24078</v>
       </c>
       <c r="B183" t="n">
-        <v>146925</v>
+        <v>178279</v>
       </c>
       <c r="C183" t="s">
         <v>1338</v>
@@ -16950,7 +16950,7 @@
         <v>24078</v>
       </c>
       <c r="B184" t="n">
-        <v>146926</v>
+        <v>178280</v>
       </c>
       <c r="C184" t="s">
         <v>1345</v>
@@ -17021,7 +17021,7 @@
         <v>24078</v>
       </c>
       <c r="B185" t="n">
-        <v>146927</v>
+        <v>178281</v>
       </c>
       <c r="C185" t="s">
         <v>1351</v>
@@ -17163,7 +17163,7 @@
         <v>24078</v>
       </c>
       <c r="B187" t="n">
-        <v>146928</v>
+        <v>178282</v>
       </c>
       <c r="C187" t="s">
         <v>1365</v>
@@ -17305,7 +17305,7 @@
         <v>24078</v>
       </c>
       <c r="B189" t="n">
-        <v>146929</v>
+        <v>178283</v>
       </c>
       <c r="C189" t="s">
         <v>1380</v>
@@ -17372,7 +17372,7 @@
         <v>24078</v>
       </c>
       <c r="B190" t="n">
-        <v>146930</v>
+        <v>178284</v>
       </c>
       <c r="C190" t="s">
         <v>1386</v>
